--- a/output/below_50/tRNA-Ile-AAT-5-5.xlsx
+++ b/output/below_50/tRNA-Ile-AAT-5-5.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>chr17</t>
   </si>
   <si>
-    <t>8090912</t>
-  </si>
-  <si>
-    <t>8090935</t>
+    <t>8090481</t>
+  </si>
+  <si>
+    <t>8090504</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>8090915</t>
+    <t>8090484</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,7 +38,7 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>CTCTAACCAACTGAGCTAAC</t>
+    <t>CGCTTTAACCAACTAAGCCA</t>
   </si>
   <si>
     <t>CGG</t>
@@ -47,160 +47,130 @@
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>33% (37)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>71</t>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>5% (16)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>75</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
   </si>
   <si>
-    <t>8090917</t>
-  </si>
-  <si>
-    <t>8090940</t>
+    <t>8090527</t>
+  </si>
+  <si>
+    <t>8090507</t>
+  </si>
+  <si>
+    <t>GGATCTCCTGTTTACTAGAC</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>46% (49)</t>
+  </si>
+  <si>
+    <t>35% (38)</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>8090530</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>8090937</t>
-  </si>
-  <si>
-    <t>TAGCTCAGTTGGTTAGAGCG</t>
+    <t>GTCTAGTAAACAGGAGATCC</t>
   </si>
   <si>
     <t>TGG</t>
   </si>
   <si>
-    <t>89% (63)</t>
-  </si>
-  <si>
-    <t>80% (61)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>8090934</t>
-  </si>
-  <si>
-    <t>8090957</t>
-  </si>
-  <si>
-    <t>8090954</t>
-  </si>
-  <si>
-    <t>GCGTGGTGCTAATAACGCCA</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>96% (68)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
+    <t>23% (40)</t>
+  </si>
+  <si>
+    <t>4% (14)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>8090508</t>
+  </si>
+  <si>
+    <t>8090531</t>
+  </si>
+  <si>
+    <t>8090528</t>
+  </si>
+  <si>
+    <t>TCTAGTAAACAGGAGATCCT</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>86% (62)</t>
+  </si>
+  <si>
+    <t>65% (52)</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>8090523</t>
+  </si>
+  <si>
+    <t>8090546</t>
+  </si>
+  <si>
+    <t>8090543</t>
+  </si>
+  <si>
+    <t>ATCCTGGGTTCGAATCCCAG</t>
+  </si>
+  <si>
+    <t>98% (71)</t>
+  </si>
+  <si>
+    <t>91% (71)</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>8090963</t>
-  </si>
-  <si>
-    <t>8090960</t>
-  </si>
-  <si>
-    <t>TGCTAATAACGCCAAGGTCG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>8090941</t>
-  </si>
-  <si>
-    <t>8090964</t>
-  </si>
-  <si>
-    <t>8090961</t>
-  </si>
-  <si>
-    <t>GCTAATAACGCCAAGGTCGC</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>31% (36)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>8090951</t>
-  </si>
-  <si>
-    <t>8090974</t>
-  </si>
-  <si>
-    <t>GGGGATCGAACCCGCGACCT</t>
-  </si>
-  <si>
-    <t>40% (47)</t>
-  </si>
-  <si>
-    <t>89% (68)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8090958</t>
-  </si>
-  <si>
-    <t>8090981</t>
-  </si>
-  <si>
-    <t>8090978</t>
-  </si>
-  <si>
-    <t>CGCGGGTTCGATCCCCGTAC</t>
-  </si>
-  <si>
-    <t>53% (51)</t>
-  </si>
-  <si>
-    <t>84% (64)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>69</t>
+    <t>68</t>
+  </si>
+  <si>
+    <t>8090525</t>
+  </si>
+  <si>
+    <t>8090548</t>
+  </si>
+  <si>
+    <t>CACCGCTGGGATTCGAACCC</t>
+  </si>
+  <si>
+    <t>30% (43)</t>
+  </si>
+  <si>
+    <t>20% (30)</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -245,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -315,22 +285,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -342,25 +312,25 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
       </c>
       <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
         <v>22</v>
       </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
       <c r="Q2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -374,22 +344,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -401,25 +371,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -433,22 +403,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -460,25 +430,25 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
       </c>
       <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="s">
         <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -492,22 +462,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -519,25 +489,25 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>48</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -551,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -563,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -578,89 +548,30 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" t="s">
         <v>52</v>
       </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>54</v>
-      </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
       </c>
       <c r="S6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>62</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
         <v>3</v>
       </c>
     </row>
